--- a/2022/Symphony/February/01.02.2022/MC Bank Statement February-2022.xlsx
+++ b/2022/Symphony/February/01.02.2022/MC Bank Statement February-2022.xlsx
@@ -2886,12 +2886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2923,6 +2917,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5847,67 +5847,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="310"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="310"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="310"/>
+      <c r="P1" s="310"/>
+      <c r="Q1" s="310"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
+      <c r="B2" s="311"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311"/>
+      <c r="K2" s="311"/>
+      <c r="L2" s="311"/>
+      <c r="M2" s="311"/>
+      <c r="N2" s="311"/>
+      <c r="O2" s="311"/>
+      <c r="P2" s="311"/>
+      <c r="Q2" s="311"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="312" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="315"/>
-      <c r="Q3" s="316"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="314"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -5916,47 +5916,47 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="319" t="s">
+      <c r="B4" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="319" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="308" t="s">
+      <c r="D4" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="319" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308" t="s">
+      <c r="F4" s="319"/>
+      <c r="G4" s="319" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="308" t="s">
+      <c r="H4" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="308" t="s">
+      <c r="I4" s="319" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="308" t="s">
+      <c r="J4" s="319" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="308" t="s">
+      <c r="K4" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="308" t="s">
+      <c r="L4" s="319" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="308" t="s">
+      <c r="M4" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="308" t="s">
+      <c r="N4" s="319" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="310" t="s">
+      <c r="O4" s="308" t="s">
         <v>46</v>
       </c>
       <c r="P4" s="321" t="s">
@@ -5972,21 +5972,21 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="318"/>
-      <c r="B5" s="320"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="309"/>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
-      <c r="M5" s="309"/>
-      <c r="N5" s="309"/>
-      <c r="O5" s="311"/>
+      <c r="A5" s="316"/>
+      <c r="B5" s="318"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
+      <c r="N5" s="320"/>
+      <c r="O5" s="309"/>
       <c r="P5" s="322"/>
       <c r="Q5" s="136" t="s">
         <v>47</v>
@@ -8892,6 +8892,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -8908,9 +8911,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -8923,8 +8923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9374,14 +9374,14 @@
         <v>392160</v>
       </c>
       <c r="C5" s="203">
-        <v>220351</v>
+        <v>219351</v>
       </c>
       <c r="D5" s="54">
         <v>2999</v>
       </c>
       <c r="E5" s="54">
         <f>C5+D5</f>
-        <v>223350</v>
+        <v>222350</v>
       </c>
       <c r="F5" s="242"/>
       <c r="G5" s="255">
@@ -12242,7 +12242,7 @@
       </c>
       <c r="C33" s="277">
         <f>SUM(C5:C32)</f>
-        <v>220351</v>
+        <v>219351</v>
       </c>
       <c r="D33" s="276">
         <f>SUM(D5:D32)</f>
@@ -12250,11 +12250,11 @@
       </c>
       <c r="E33" s="276">
         <f>SUM(E5:E32)</f>
-        <v>223350</v>
+        <v>222350</v>
       </c>
       <c r="F33" s="276">
         <f>B33-E33</f>
-        <v>168810</v>
+        <v>169810</v>
       </c>
       <c r="G33" s="278"/>
       <c r="H33" s="148"/>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="C46" s="137"/>
       <c r="D46" s="220">
-        <v>614580</v>
+        <v>615580</v>
       </c>
       <c r="E46" s="289" t="s">
         <v>203</v>
@@ -21813,7 +21813,7 @@
       <c r="C119" s="336"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2520835</v>
+        <v>2521835</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22020,7 +22020,7 @@
       <c r="C121" s="324"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2520835</v>
+        <v>2521835</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33252,8 +33252,8 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33430,7 +33430,7 @@
         <v>70</v>
       </c>
       <c r="E7" s="258">
-        <v>174789.04030000046</v>
+        <v>173789.04030000046</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="281"/>
@@ -33519,7 +33519,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="258">
-        <v>2520835</v>
+        <v>2521835</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="249"/>
